--- a/auto_test/static/api.xlsx
+++ b/auto_test/static/api.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssm\PycharmProjects\mypytest\static\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1A6476-D638-41CB-8590-CCE597DA6D55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1296" yWindow="1296" windowWidth="20964" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="26415" windowHeight="12120"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
   <si>
     <t>id</t>
   </si>
@@ -48,9 +42,21 @@
     <t>comment</t>
   </si>
   <si>
+    <t>login_1</t>
+  </si>
+  <si>
+    <t>http://121.5.56.12:8889/login</t>
+  </si>
+  <si>
     <t>post</t>
   </si>
   <si>
+    <t>{"Content-Length":"30", "Host":"121.5.56.12:8889", "Content-Type":"application/json"}</t>
+  </si>
+  <si>
+    <t>{ "password": "123456","username": "admin"}</t>
+  </si>
+  <si>
     <t>{"data":"XXXXX","success":true}</t>
   </si>
   <si>
@@ -60,10 +66,16 @@
     <t>warehouse_1</t>
   </si>
   <si>
+    <t>http://121.5.56.12:8889/api/v1/warehouses</t>
+  </si>
+  <si>
     <t>get</t>
   </si>
   <si>
-    <t>{}</t>
+    <t>{"Authorization":"$login_1&gt;response_json&gt;data$"}</t>
+  </si>
+  <si>
+    <t>{"pageNum":"1","pageSize":"10","keywords":"","type":"","enabled":"","isAsc":false,"orderby":"id"}</t>
   </si>
   <si>
     <t>{"success":true,…………..}</t>
@@ -77,6 +89,12 @@
   </si>
   <si>
     <t>warehouse_2</t>
+  </si>
+  <si>
+    <t>http://121.5.56.12:8889/api/v1/warehouse</t>
+  </si>
+  <si>
+    <t>{"Content-Length":"50", "Host":"121.5.56.12:8889","Content-Type":"application/json","Authorization":"$login_1&gt;response_json&gt;data$"}</t>
   </si>
   <si>
     <t>{ "address": "地址","corpId": "100","corpName": "刑事侦查大队","enabled": true,"name": "仓库名字","type": "101"}</t>
@@ -97,7 +115,10 @@
     <t>put</t>
   </si>
   <si>
-    <t>{ "address": "地址","corpId": "100","corpName": "刑事侦查大队","enabled": true,"name": "仓库名字2","type": "101", "id":1331502648326623233}</t>
+    <t>{"Content-Length":"150", "Host":"121.5.56.12:8889","Content-Type":"application/json","Authorization":"$login_1&gt;response_json&gt;data$"}</t>
+  </si>
+  <si>
+    <t>{ "address": "地址","corpId": "100","corpName": "刑事侦查大队","enabled": true,"name": "仓库名字2","type": "101", "id":$warehouse_add&gt;response_json&gt;data$}</t>
   </si>
   <si>
     <t>编辑仓库接口，id必填，其他参数可以省略。
@@ -112,12 +133,21 @@
     <t>warehouse_4</t>
   </si>
   <si>
+    <t>http://121.5.56.12:8889/api/v1/warehouse/$warehouse_add&gt;response_json&gt;data$</t>
+  </si>
+  <si>
     <t>delete</t>
   </si>
   <si>
     <t>删除仓库接口，id必填</t>
   </si>
   <si>
+    <t>http://192.168.18.149:8889/api/v1/warehouses</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
     <t>http://192.168.18.149:8889/api/v1/warehouse</t>
   </si>
   <si>
@@ -127,70 +157,23 @@
     <t>{"Content-Length":"150", "Host":"192.168.18.149:8889","Content-Type":"application/json"}</t>
   </si>
   <si>
+    <t>{ "address": "地址","corpId": "100","corpName": "刑事侦查大队","enabled": true,"name": "仓库名字2","type": "101", "id":1331502648326623233}</t>
+  </si>
+  <si>
     <t>http://192.168.18.149:8889/api/v1/warehouse/{id}</t>
-  </si>
-  <si>
-    <t>body_data</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.18.149:8889/api/v1/warehouse</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.18.149:8889/api/v1/warehouses</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"pageNum":"1","pageSize":"10","keywords":"","type":"","enabled":"","isAsc":false,"orderby":"id"}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.18.149:8889/login</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.18.149:8889/api/v1/warehouse/$warehouse_add&gt;response_json&gt;data$</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ "address": "地址","corpId": "100","corpName": "刑事侦查大队","enabled": true,"name": "仓库名字2","type": "101", "id":$warehouse_add&gt;response_json&gt;data$}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ "password": "123456","username": "admin"}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"Content-Length":"30", "Host":"192.168.18.149:8889", "Content-Type":"application/json"}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"Authorization":"$login_1&gt;response_json&gt;data$"}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"Content-Length":"50", "Host":"192.168.18.149:8889","Content-Type":"application/json","Authorization":"$login_1&gt;response_json&gt;data$"}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"Content-Length":"150", "Host":"192.168.18.149:8889","Content-Type":"application/json","Authorization":"$login_1&gt;response_json&gt;data$"}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>login_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,6 +182,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -206,6 +196,29 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -213,29 +226,314 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -243,65 +541,339 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -589,26 +1161,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.21875" customWidth="1"/>
-    <col min="2" max="2" width="83.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
-    <col min="4" max="4" width="51.77734375" customWidth="1"/>
-    <col min="5" max="5" width="26.88671875" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" customWidth="1"/>
-    <col min="7" max="7" width="36.77734375" customWidth="1"/>
-    <col min="8" max="8" width="51.109375" customWidth="1"/>
+    <col min="1" max="1" width="15.2166666666667" customWidth="1"/>
+    <col min="2" max="2" width="83.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="19.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="51.775" customWidth="1"/>
+    <col min="5" max="5" width="26.8833333333333" customWidth="1"/>
+    <col min="6" max="6" width="32.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="36.775" customWidth="1"/>
+    <col min="8" max="8" width="51.1083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -634,152 +1207,153 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="2" ht="27" spans="1:8">
       <c r="A2" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" ht="138.75" customHeight="1" spans="1:8">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" ht="94.5" spans="1:8">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" ht="94.5" spans="1:8">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="H6" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="H6" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{E37396BA-664A-4964-A007-2EE7DE1B643B}"/>
-    <hyperlink ref="B4" r:id="rId3" tooltip="http://10.1.25.147:8889/api/v1/warehouse" display="http://10.1.25.147:8889/api/v1/warehouse" xr:uid="{09054284-12D4-4D63-82B5-9457B0F3F1AE}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{17D71B9D-3D05-46B3-9D7A-8E842D3EAD9D}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{9BC3CDA6-FCD9-43E0-AE10-8D0E1115DAA9}"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://121.5.56.12:8889/login" tooltip="http://121.5.56.12:8889/login"/>
+    <hyperlink ref="B3" r:id="rId2" display="http://121.5.56.12:8889/api/v1/warehouses" tooltip="http://121.5.56.12:8889/api/v1/warehouses"/>
+    <hyperlink ref="B4" r:id="rId3" display="http://121.5.56.12:8889/api/v1/warehouse" tooltip="http://192.168.18.149:8889/api/v1/warehouse"/>
+    <hyperlink ref="B5" r:id="rId3" display="http://121.5.56.12:8889/api/v1/warehouse"/>
+    <hyperlink ref="B6" r:id="rId4" display="http://121.5.56.12:8889/api/v1/warehouse/$warehouse_add&gt;response_json&gt;data$"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId6"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="54.88671875" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" customWidth="1"/>
-    <col min="4" max="4" width="38.77734375" customWidth="1"/>
-    <col min="5" max="5" width="31.88671875" customWidth="1"/>
-    <col min="6" max="6" width="57.33203125" customWidth="1"/>
-    <col min="7" max="7" width="27.44140625" customWidth="1"/>
-    <col min="8" max="8" width="47.44140625" customWidth="1"/>
+    <col min="1" max="1" width="15.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="54.8833333333333" customWidth="1"/>
+    <col min="3" max="3" width="17.1083333333333" customWidth="1"/>
+    <col min="4" max="4" width="38.775" customWidth="1"/>
+    <col min="5" max="5" width="31.8833333333333" customWidth="1"/>
+    <col min="6" max="6" width="57.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="27.4416666666667" customWidth="1"/>
+    <col min="8" max="8" width="47.4416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -795,8 +1369,8 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>30</v>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -805,116 +1379,119 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="120" customHeight="1" spans="1:8">
       <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>33</v>
+        <v>15</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" ht="217.95" customHeight="1" spans="1:8">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" ht="94.5" spans="1:8">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
         <v>34</v>
       </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="217.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" s="8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E5" s="8"/>
-      <c r="H5" s="3" t="s">
-        <v>25</v>
+      <c r="H5" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" tooltip="http://10.1.25.147:8889/api/v1/warehouse" display="http://10.1.25.147:8889/api/v1/warehouse" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="B5" r:id="rId4" tooltip="http://10.1.25.147:8889/api/v1/warehouse/{id}" display="http://10.1.25.147:8889/api/v1/warehouse/{id}" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://192.168.18.149:8889/api/v1/warehouses"/>
+    <hyperlink ref="B3" r:id="rId2" display="http://192.168.18.149:8889/api/v1/warehouse" tooltip="http://10.1.25.147:8889/api/v1/warehouse"/>
+    <hyperlink ref="B4" r:id="rId3" display="http://192.168.18.149:8889/api/v1/warehouse"/>
+    <hyperlink ref="B5" r:id="rId4" display="http://192.168.18.149:8889/api/v1/warehouse/{id}" tooltip="http://10.1.25.147:8889/api/v1/warehouse/{id}"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId5"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/auto_test/static/api.xlsx
+++ b/auto_test/static/api.xlsx
@@ -8,15 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
-    <sheet name="warehouse" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
     <t>id</t>
   </si>
@@ -141,39 +140,18 @@
   <si>
     <t>删除仓库接口，id必填</t>
   </si>
-  <si>
-    <t>http://192.168.18.149:8889/api/v1/warehouses</t>
-  </si>
-  <si>
-    <t>{}</t>
-  </si>
-  <si>
-    <t>http://192.168.18.149:8889/api/v1/warehouse</t>
-  </si>
-  <si>
-    <t>{"Content-Length":"50", "Host":"192.168.18.149:8889","Content-Type":"application/json"}</t>
-  </si>
-  <si>
-    <t>{"Content-Length":"150", "Host":"192.168.18.149:8889","Content-Type":"application/json"}</t>
-  </si>
-  <si>
-    <t>{ "address": "地址","corpId": "100","corpName": "刑事侦查大队","enabled": true,"name": "仓库名字2","type": "101", "id":1331502648326623233}</t>
-  </si>
-  <si>
-    <t>http://192.168.18.149:8889/api/v1/warehouse/{id}</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,18 +160,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -220,47 +229,54 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -280,58 +296,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -348,13 +312,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,102 +468,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -474,61 +486,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,6 +531,50 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -595,231 +603,181 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1166,7 +1124,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
@@ -1208,7 +1166,7 @@
       </c>
     </row>
     <row r="2" ht="27" spans="1:8">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1217,11 +1175,11 @@
       <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="5"/>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G2" t="s">
@@ -1241,10 +1199,10 @@
       <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G3" t="s">
@@ -1258,13 +1216,13 @@
       <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F4" s="5" t="s">
@@ -1287,10 +1245,10 @@
       <c r="C5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G5" s="5" t="s">
@@ -1310,10 +1268,10 @@
       <c r="C6" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="8"/>
+      <c r="E6" s="2"/>
       <c r="H6" s="5" t="s">
         <v>35</v>
       </c>
@@ -1335,157 +1293,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="1" width="15.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="54.8833333333333" customWidth="1"/>
-    <col min="3" max="3" width="17.1083333333333" customWidth="1"/>
-    <col min="4" max="4" width="38.775" customWidth="1"/>
-    <col min="5" max="5" width="31.8833333333333" customWidth="1"/>
-    <col min="6" max="6" width="57.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="27.4416666666667" customWidth="1"/>
-    <col min="8" max="8" width="47.4416666666667" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" ht="120" customHeight="1" spans="1:8">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" ht="217.95" customHeight="1" spans="1:8">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" ht="94.5" spans="1:8">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="H5" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://192.168.18.149:8889/api/v1/warehouses"/>
-    <hyperlink ref="B3" r:id="rId2" display="http://192.168.18.149:8889/api/v1/warehouse" tooltip="http://10.1.25.147:8889/api/v1/warehouse"/>
-    <hyperlink ref="B4" r:id="rId3" display="http://192.168.18.149:8889/api/v1/warehouse"/>
-    <hyperlink ref="B5" r:id="rId4" display="http://192.168.18.149:8889/api/v1/warehouse/{id}" tooltip="http://10.1.25.147:8889/api/v1/warehouse/{id}"/>
-  </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/auto_test/static/api.xlsx
+++ b/auto_test/static/api.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
   <si>
     <t>id</t>
   </si>
@@ -93,7 +93,7 @@
     <t>http://121.5.56.12:8889/api/v1/warehouse</t>
   </si>
   <si>
-    <t>{"Content-Length":"50", "Host":"121.5.56.12:8889","Content-Type":"application/json","Authorization":"$login_1&gt;response_json&gt;data$"}</t>
+    <t>{"Content-Length":"50", "Host":"121.5.56.12:8889","Content-Type":"application/json"}</t>
   </si>
   <si>
     <t>{ "address": "地址","corpId": "100","corpName": "刑事侦查大队","enabled": true,"name": "仓库名字","type": "101"}</t>
@@ -114,10 +114,10 @@
     <t>put</t>
   </si>
   <si>
-    <t>{"Content-Length":"150", "Host":"121.5.56.12:8889","Content-Type":"application/json","Authorization":"$login_1&gt;response_json&gt;data$"}</t>
-  </si>
-  <si>
-    <t>{ "address": "地址","corpId": "100","corpName": "刑事侦查大队","enabled": true,"name": "仓库名字2","type": "101", "id":$warehouse_add&gt;response_json&gt;data$}</t>
+    <t>{"Content-Length":"150", "Host":"121.5.56.12:8889","Content-Type":"application/json"}</t>
+  </si>
+  <si>
+    <t>{ "address": "地址","corpId": "100","corpName": "刑事侦查大队","enabled": true,"name": "仓库名字2","type": "101"}</t>
   </si>
   <si>
     <t>编辑仓库接口，id必填，其他参数可以省略。
@@ -132,10 +132,13 @@
     <t>warehouse_4</t>
   </si>
   <si>
-    <t>http://121.5.56.12:8889/api/v1/warehouse/$warehouse_add&gt;response_json&gt;data$</t>
+    <t>http://121.5.56.12:8889/api/v1/warehouse/{id}</t>
   </si>
   <si>
     <t>delete</t>
+  </si>
+  <si>
+    <t>{}</t>
   </si>
   <si>
     <t>删除仓库接口，id必填</t>
@@ -146,12 +149,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,39 +170,15 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,6 +207,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -235,32 +245,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -280,19 +277,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -312,6 +322,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -336,25 +370,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,12 +460,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -427,48 +479,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,50 +541,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -603,6 +569,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -611,10 +621,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -623,16 +633,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -642,119 +652,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -777,6 +787,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1124,7 +1137,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
@@ -1262,18 +1275,18 @@
       <c r="A6" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C6" t="s">
         <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="E6" s="2"/>
       <c r="H6" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1282,7 +1295,7 @@
     <hyperlink ref="B3" r:id="rId2" display="http://121.5.56.12:8889/api/v1/warehouses" tooltip="http://121.5.56.12:8889/api/v1/warehouses"/>
     <hyperlink ref="B4" r:id="rId3" display="http://121.5.56.12:8889/api/v1/warehouse" tooltip="http://192.168.18.149:8889/api/v1/warehouse"/>
     <hyperlink ref="B5" r:id="rId3" display="http://121.5.56.12:8889/api/v1/warehouse"/>
-    <hyperlink ref="B6" r:id="rId4" display="http://121.5.56.12:8889/api/v1/warehouse/$warehouse_add&gt;response_json&gt;data$"/>
+    <hyperlink ref="B6" r:id="rId4" display="http://121.5.56.12:8889/api/v1/warehouse/{id}" tooltip="http://121.5.56.12:8889/api/v1/warehouse/{id}"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>

--- a/auto_test/static/api.xlsx
+++ b/auto_test/static/api.xlsx
@@ -44,13 +44,13 @@
     <t>login_1</t>
   </si>
   <si>
-    <t>http://121.5.56.12:8889/login</t>
+    <t>http://10.1.25.147:8889/login</t>
   </si>
   <si>
     <t>post</t>
   </si>
   <si>
-    <t>{"Content-Length":"30", "Host":"121.5.56.12:8889", "Content-Type":"application/json"}</t>
+    <t>{"Content-Length":"30", "Host":"10.1.25.147:8889", "Content-Type":"application/json"}</t>
   </si>
   <si>
     <t>{ "password": "123456","username": "admin"}</t>
@@ -65,7 +65,7 @@
     <t>warehouse_1</t>
   </si>
   <si>
-    <t>http://121.5.56.12:8889/api/v1/warehouses</t>
+    <t>http://10.1.25.147:8889/api/v1/warehouses</t>
   </si>
   <si>
     <t>get</t>
@@ -90,10 +90,10 @@
     <t>warehouse_2</t>
   </si>
   <si>
-    <t>http://121.5.56.12:8889/api/v1/warehouse</t>
-  </si>
-  <si>
-    <t>{"Content-Length":"50", "Host":"121.5.56.12:8889","Content-Type":"application/json"}</t>
+    <t>http://10.1.25.147:8889/api/v1/warehouse</t>
+  </si>
+  <si>
+    <t>{"Content-Length":"50", "Host":"10.1.25.147:8889","Content-Type":"application/json"}</t>
   </si>
   <si>
     <t>{ "address": "地址","corpId": "100","corpName": "刑事侦查大队","enabled": true,"name": "仓库名字","type": "101"}</t>
@@ -114,7 +114,7 @@
     <t>put</t>
   </si>
   <si>
-    <t>{"Content-Length":"150", "Host":"121.5.56.12:8889","Content-Type":"application/json"}</t>
+    <t>{"Content-Length":"150", "Host":"10.1.25.147:8889","Content-Type":"application/json"}</t>
   </si>
   <si>
     <t>{ "address": "地址","corpId": "100","corpName": "刑事侦查大队","enabled": true,"name": "仓库名字2","type": "101"}</t>
@@ -132,7 +132,7 @@
     <t>warehouse_4</t>
   </si>
   <si>
-    <t>http://121.5.56.12:8889/api/v1/warehouse/{id}</t>
+    <t>http://10.1.25.147:8889/api/v1/warehouse/{id}</t>
   </si>
   <si>
     <t>delete</t>
@@ -150,9 +150,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -165,16 +165,23 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -238,13 +245,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -322,90 +322,90 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -418,13 +418,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,19 +460,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,7 +472,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,18 +490,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -497,12 +503,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,10 +621,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -633,59 +633,59 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -694,13 +694,13 @@
     <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -709,58 +709,58 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -774,7 +774,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -786,7 +786,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1137,7 +1137,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
@@ -1206,7 +1206,7 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C3" t="s">
@@ -1229,7 +1229,7 @@
       <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C4" t="s">
@@ -1252,7 +1252,7 @@
       <c r="A5" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C5" t="s">
@@ -1275,7 +1275,7 @@
       <c r="A6" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C6" t="s">
@@ -1291,11 +1291,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://121.5.56.12:8889/login" tooltip="http://121.5.56.12:8889/login"/>
-    <hyperlink ref="B3" r:id="rId2" display="http://121.5.56.12:8889/api/v1/warehouses" tooltip="http://121.5.56.12:8889/api/v1/warehouses"/>
-    <hyperlink ref="B4" r:id="rId3" display="http://121.5.56.12:8889/api/v1/warehouse" tooltip="http://192.168.18.149:8889/api/v1/warehouse"/>
-    <hyperlink ref="B5" r:id="rId3" display="http://121.5.56.12:8889/api/v1/warehouse"/>
-    <hyperlink ref="B6" r:id="rId4" display="http://121.5.56.12:8889/api/v1/warehouse/{id}" tooltip="http://121.5.56.12:8889/api/v1/warehouse/{id}"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://10.1.25.147:8889/login" tooltip="http://10.1.25.147:8889/login"/>
+    <hyperlink ref="B3" r:id="rId2" display="http://10.1.25.147:8889/api/v1/warehouses" tooltip="http://121.5.56.12:8889/api/v1/warehouses"/>
+    <hyperlink ref="B4" r:id="rId3" display="http://10.1.25.147:8889/api/v1/warehouse" tooltip="http://192.168.18.149:8889/api/v1/warehouse"/>
+    <hyperlink ref="B5" r:id="rId3" display="http://10.1.25.147:8889/api/v1/warehouse"/>
+    <hyperlink ref="B6" r:id="rId4" display="http://10.1.25.147:8889/api/v1/warehouse/{id}" tooltip="http://121.5.56.12:8889/api/v1/warehouse/{id}"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>

--- a/auto_test/static/api.xlsx
+++ b/auto_test/static/api.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssm\PycharmProjects\mypytest\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssm\PycharmProjects\auto_test\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1A6476-D638-41CB-8590-CCE597DA6D55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D49F82-4286-4472-AB6C-662F6C1E581F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1296" yWindow="1296" windowWidth="20964" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>para</t>
-  </si>
-  <si>
-    <t>body_data</t>
   </si>
   <si>
     <t>expected result</t>
@@ -170,19 +167,59 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>{"Authorization":"$login_1&gt;response_json&gt;data$"}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"Content-Length":"50", "Host":"192.168.18.149:8889","Content-Type":"application/json","Authorization":"$login_1&gt;response_json&gt;data$"}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"Content-Length":"150", "Host":"192.168.18.149:8889","Content-Type":"application/json","Authorization":"$login_1&gt;response_json&gt;data$"}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>login_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>headers</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>params</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>json</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cookies</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_num</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Authorization":"Bearer $login_1&gt;response_json&gt;data$"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Content-Length":"50", "Host":"192.168.18.149:8889","Content-Type":"application/json","Authorization":"Bearer $login_1&gt;response_json&gt;data$"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Content-Length":"150", "Host":"192.168.18.149:8889","Content-Type":"application/json","Authorization":"Bearer $login_1&gt;response_json&gt;data$"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>warehouse_get</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>warehouse_add</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>warehouse_edit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>warehouse_del</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -590,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -602,15 +639,17 @@
     <col min="2" max="2" width="83.33203125" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" customWidth="1"/>
     <col min="4" max="4" width="51.77734375" customWidth="1"/>
-    <col min="5" max="5" width="26.88671875" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" customWidth="1"/>
-    <col min="7" max="7" width="36.77734375" customWidth="1"/>
-    <col min="8" max="8" width="51.109375" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="26.88671875" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" customWidth="1"/>
+    <col min="8" max="8" width="32.6640625" customWidth="1"/>
+    <col min="9" max="9" width="36.77734375" customWidth="1"/>
+    <col min="10" max="10" width="51.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -618,131 +657,145 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="D1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="D2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="H4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="H5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="J6" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="H6" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -763,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H6"/>
+    <sheetView topLeftCell="C13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -796,100 +849,100 @@
         <v>4</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="217.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="8"/>
       <c r="H5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
